--- a/perhitungan-manual-topsis/Perhitungan Manual Topsis.xlsx
+++ b/perhitungan-manual-topsis/Perhitungan Manual Topsis.xlsx
@@ -480,8 +480,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -643,33 +643,24 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -683,11 +674,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,19 +699,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,2581 +1113,2576 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="R1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="21"/>
+      <c r="D3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="R3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f>E5^2</f>
         <v>25</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:P19" si="0">F5^2</f>
+      <c r="M5" s="1">
+        <f>F5^2</f>
         <v>25</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
+      <c r="N5" s="1">
+        <f>G5^2</f>
         <v>25</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="0"/>
+      <c r="O5" s="1">
+        <f>H5^2</f>
+        <v>9</v>
+      </c>
+      <c r="P5" s="1">
+        <f>I5^2</f>
         <v>1</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <f>E5/SQRT(L20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="T5" s="12">
-        <f t="shared" ref="T5:W5" si="1">F5/SQRT(M20)</f>
+      <c r="T5" s="10">
+        <f>F5/SQRT(M20)</f>
         <v>0.39652579285907208</v>
       </c>
-      <c r="U5" s="12">
-        <f t="shared" si="1"/>
+      <c r="U5" s="10">
+        <f>G5/SQRT(N20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="V5" s="12">
-        <f t="shared" si="1"/>
+      <c r="V5" s="10">
+        <f>H5/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W5" s="12">
-        <f t="shared" si="1"/>
+      <c r="W5" s="10">
+        <f>I5/SQRT(P20)</f>
         <v>5.5300126360933101E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" ref="L6:L19" si="2">E6^2</f>
-        <v>9</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="0"/>
+      <c r="L6" s="1">
+        <f>E6^2</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="1">
+        <f>F6^2</f>
         <v>25</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
+      <c r="N6" s="1">
+        <f>G6^2</f>
+        <v>9</v>
+      </c>
+      <c r="O6" s="1">
+        <f>H6^2</f>
+        <v>9</v>
+      </c>
+      <c r="P6" s="1">
+        <f>I6^2</f>
         <v>1</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="10">
         <f>E6/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T6" s="12">
-        <f t="shared" ref="T6:W6" si="3">F6/SQRT(M20)</f>
+      <c r="T6" s="10">
+        <f>F6/SQRT(M20)</f>
         <v>0.39652579285907208</v>
       </c>
-      <c r="U6" s="12">
-        <f t="shared" si="3"/>
+      <c r="U6" s="10">
+        <f>G6/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V6" s="12">
-        <f t="shared" si="3"/>
+      <c r="V6" s="10">
+        <f>H6/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W6" s="12">
-        <f t="shared" si="3"/>
+      <c r="W6" s="10">
+        <f>I6/SQRT(P20)</f>
         <v>5.5300126360933101E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="0"/>
+      <c r="L7" s="1">
+        <f>E7^2</f>
+        <v>9</v>
+      </c>
+      <c r="M7" s="1">
+        <f>F7^2</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="1">
+        <f>G7^2</f>
+        <v>9</v>
+      </c>
+      <c r="O7" s="1">
+        <f>H7^2</f>
+        <v>9</v>
+      </c>
+      <c r="P7" s="1">
+        <f>I7^2</f>
         <v>25</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="10">
         <f>E7/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T7" s="12">
-        <f t="shared" ref="T7:W7" si="4">F7/SQRT(M20)</f>
+      <c r="T7" s="10">
+        <f>F7/SQRT(M20)</f>
         <v>0.23791547571544325</v>
       </c>
-      <c r="U7" s="12">
-        <f t="shared" si="4"/>
+      <c r="U7" s="10">
+        <f>G7/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V7" s="12">
-        <f t="shared" si="4"/>
+      <c r="V7" s="10">
+        <f>H7/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W7" s="12">
-        <f t="shared" si="4"/>
+      <c r="W7" s="10">
+        <f>I7/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="0"/>
+      <c r="L8" s="1">
+        <f>E8^2</f>
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <f>F8^2</f>
         <v>25</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="0"/>
+      <c r="N8" s="1">
+        <f>G8^2</f>
+        <v>9</v>
+      </c>
+      <c r="O8" s="1">
+        <f>H8^2</f>
+        <v>9</v>
+      </c>
+      <c r="P8" s="1">
+        <f>I8^2</f>
         <v>25</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="10">
         <f>E8/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T8" s="12">
-        <f t="shared" ref="T8:W8" si="5">F8/SQRT(M20)</f>
+      <c r="T8" s="10">
+        <f>F8/SQRT(M20)</f>
         <v>0.39652579285907208</v>
       </c>
-      <c r="U8" s="12">
-        <f t="shared" si="5"/>
+      <c r="U8" s="10">
+        <f>G8/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V8" s="12">
-        <f t="shared" si="5"/>
+      <c r="V8" s="10">
+        <f>H8/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W8" s="12">
-        <f t="shared" si="5"/>
+      <c r="W8" s="10">
+        <f>I8/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
+      <c r="L9" s="1">
+        <f>E9^2</f>
+        <v>9</v>
+      </c>
+      <c r="M9" s="1">
+        <f>F9^2</f>
+        <v>9</v>
+      </c>
+      <c r="N9" s="1">
+        <f>G9^2</f>
         <v>25</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="0"/>
+      <c r="O9" s="1">
+        <f>H9^2</f>
+        <v>9</v>
+      </c>
+      <c r="P9" s="1">
+        <f>I9^2</f>
         <v>25</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="10">
         <f>E9/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T9" s="12">
-        <f t="shared" ref="T9:W9" si="6">F9/SQRT(M20)</f>
+      <c r="T9" s="10">
+        <f>F9/SQRT(M20)</f>
         <v>0.23791547571544325</v>
       </c>
-      <c r="U9" s="12">
-        <f t="shared" si="6"/>
+      <c r="U9" s="10">
+        <f>G9/SQRT(N20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="V9" s="12">
-        <f t="shared" si="6"/>
+      <c r="V9" s="10">
+        <f>H9/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W9" s="12">
-        <f t="shared" si="6"/>
+      <c r="W9" s="10">
+        <f>I9/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
+      <c r="L10" s="1">
+        <f>E10^2</f>
+        <v>9</v>
+      </c>
+      <c r="M10" s="1">
+        <f>F10^2</f>
+        <v>9</v>
+      </c>
+      <c r="N10" s="1">
+        <f>G10^2</f>
         <v>25</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="0"/>
+      <c r="O10" s="1">
+        <f>H10^2</f>
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <f>I10^2</f>
         <v>25</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="10">
         <f>E10/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T10" s="12">
-        <f t="shared" ref="T10:W10" si="7">F10/SQRT(M20)</f>
+      <c r="T10" s="10">
+        <f>F10/SQRT(M20)</f>
         <v>0.23791547571544325</v>
       </c>
-      <c r="U10" s="12">
-        <f t="shared" si="7"/>
+      <c r="U10" s="10">
+        <f>G10/SQRT(N20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="V10" s="12">
-        <f t="shared" si="7"/>
+      <c r="V10" s="10">
+        <f>H10/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W10" s="12">
-        <f t="shared" si="7"/>
+      <c r="W10" s="10">
+        <f>I10/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
         <v>5</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="2"/>
+      <c r="L11" s="1">
+        <f>E11^2</f>
         <v>25</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="0"/>
+      <c r="M11" s="1">
+        <f>F11^2</f>
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="0"/>
+      <c r="N11" s="1">
+        <f>G11^2</f>
+        <v>9</v>
+      </c>
+      <c r="O11" s="1">
+        <f>H11^2</f>
+        <v>9</v>
+      </c>
+      <c r="P11" s="1">
+        <f>I11^2</f>
         <v>25</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="10">
         <f>E11/SQRT(L20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="T11" s="12">
-        <f t="shared" ref="T11:W11" si="8">F11/SQRT(M20)</f>
+      <c r="T11" s="10">
+        <f>F11/SQRT(M20)</f>
         <v>7.9305158571814416E-2</v>
       </c>
-      <c r="U11" s="12">
-        <f t="shared" si="8"/>
+      <c r="U11" s="10">
+        <f>G11/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V11" s="12">
-        <f t="shared" si="8"/>
+      <c r="V11" s="10">
+        <f>H11/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W11" s="12">
-        <f t="shared" si="8"/>
+      <c r="W11" s="10">
+        <f>I11/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="0"/>
+      <c r="L12" s="1">
+        <f>E12^2</f>
+        <v>9</v>
+      </c>
+      <c r="M12" s="1">
+        <f>F12^2</f>
         <v>1</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
+      <c r="N12" s="1">
+        <f>G12^2</f>
         <v>25</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
+      <c r="O12" s="1">
+        <f>H12^2</f>
+        <v>9</v>
+      </c>
+      <c r="P12" s="1">
+        <f>I12^2</f>
         <v>25</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="10">
         <f>E12/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T12" s="12">
-        <f t="shared" ref="T12:W12" si="9">F12/SQRT(M20)</f>
+      <c r="T12" s="10">
+        <f>F12/SQRT(M20)</f>
         <v>7.9305158571814416E-2</v>
       </c>
-      <c r="U12" s="12">
-        <f t="shared" si="9"/>
+      <c r="U12" s="10">
+        <f>G12/SQRT(N20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="V12" s="12">
-        <f t="shared" si="9"/>
+      <c r="V12" s="10">
+        <f>H12/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W12" s="12">
-        <f t="shared" si="9"/>
+      <c r="W12" s="10">
+        <f>I12/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="2"/>
+      <c r="L13" s="1">
+        <f>E13^2</f>
         <v>25</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
+      <c r="M13" s="1">
+        <f>F13^2</f>
         <v>1</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="0"/>
+      <c r="N13" s="1">
+        <f>G13^2</f>
+        <v>9</v>
+      </c>
+      <c r="O13" s="1">
+        <f>H13^2</f>
+        <v>9</v>
+      </c>
+      <c r="P13" s="1">
+        <f>I13^2</f>
         <v>25</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="10">
         <f>E13/SQRT(L20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="T13" s="12">
-        <f t="shared" ref="T13:W13" si="10">F13/SQRT(M20)</f>
+      <c r="T13" s="10">
+        <f>F13/SQRT(M20)</f>
         <v>7.9305158571814416E-2</v>
       </c>
-      <c r="U13" s="12">
-        <f t="shared" si="10"/>
+      <c r="U13" s="10">
+        <f>G13/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V13" s="12">
-        <f t="shared" si="10"/>
+      <c r="V13" s="10">
+        <f>H13/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W13" s="12">
-        <f t="shared" si="10"/>
+      <c r="W13" s="10">
+        <f>I13/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
+      <c r="L14" s="1">
+        <f>E14^2</f>
+        <v>9</v>
+      </c>
+      <c r="M14" s="1">
+        <f>F14^2</f>
         <v>25</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="0"/>
+      <c r="N14" s="1">
+        <f>G14^2</f>
+        <v>9</v>
+      </c>
+      <c r="O14" s="1">
+        <f>H14^2</f>
+        <v>9</v>
+      </c>
+      <c r="P14" s="1">
+        <f>I14^2</f>
         <v>25</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="10">
         <f>E14/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T14" s="12">
-        <f t="shared" ref="T14:W14" si="11">F14/SQRT(M20)</f>
+      <c r="T14" s="10">
+        <f>F14/SQRT(M20)</f>
         <v>0.39652579285907208</v>
       </c>
-      <c r="U14" s="12">
-        <f t="shared" si="11"/>
+      <c r="U14" s="10">
+        <f>G14/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V14" s="12">
-        <f t="shared" si="11"/>
+      <c r="V14" s="10">
+        <f>H14/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W14" s="12">
-        <f t="shared" si="11"/>
+      <c r="W14" s="10">
+        <f>I14/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="0"/>
+      <c r="L15" s="1">
+        <f>E15^2</f>
+        <v>9</v>
+      </c>
+      <c r="M15" s="1">
+        <f>F15^2</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="1">
+        <f>G15^2</f>
+        <v>9</v>
+      </c>
+      <c r="O15" s="1">
+        <f>H15^2</f>
+        <v>9</v>
+      </c>
+      <c r="P15" s="1">
+        <f>I15^2</f>
         <v>25</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="10">
         <f>E15/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T15" s="12">
-        <f t="shared" ref="T15:W15" si="12">F15/SQRT(M20)</f>
+      <c r="T15" s="10">
+        <f>F15/SQRT(M20)</f>
         <v>0.23791547571544325</v>
       </c>
-      <c r="U15" s="12">
-        <f t="shared" si="12"/>
+      <c r="U15" s="10">
+        <f>G15/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V15" s="12">
-        <f t="shared" si="12"/>
+      <c r="V15" s="10">
+        <f>H15/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W15" s="12">
-        <f t="shared" si="12"/>
+      <c r="W15" s="10">
+        <f>I15/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
+      <c r="L16" s="1">
+        <f>E16^2</f>
+        <v>9</v>
+      </c>
+      <c r="M16" s="1">
+        <f>F16^2</f>
         <v>1</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="0"/>
+      <c r="N16" s="1">
+        <f>G16^2</f>
+        <v>9</v>
+      </c>
+      <c r="O16" s="1">
+        <f>H16^2</f>
+        <v>9</v>
+      </c>
+      <c r="P16" s="1">
+        <f>I16^2</f>
         <v>25</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="10">
         <f>E16/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T16" s="12">
-        <f t="shared" ref="T16:W16" si="13">F16/SQRT(M20)</f>
+      <c r="T16" s="10">
+        <f>F16/SQRT(M20)</f>
         <v>7.9305158571814416E-2</v>
       </c>
-      <c r="U16" s="12">
-        <f t="shared" si="13"/>
+      <c r="U16" s="10">
+        <f>G16/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V16" s="12">
-        <f t="shared" si="13"/>
+      <c r="V16" s="10">
+        <f>H16/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W16" s="12">
-        <f t="shared" si="13"/>
+      <c r="W16" s="10">
+        <f>I16/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
+      <c r="L17" s="1">
+        <f>E17^2</f>
+        <v>9</v>
+      </c>
+      <c r="M17" s="1">
+        <f>F17^2</f>
         <v>1</v>
       </c>
-      <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="0"/>
+      <c r="N17" s="1">
+        <f>G17^2</f>
+        <v>9</v>
+      </c>
+      <c r="O17" s="1">
+        <f>H17^2</f>
+        <v>9</v>
+      </c>
+      <c r="P17" s="1">
+        <f>I17^2</f>
         <v>25</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="10">
         <f>E17/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T17" s="12">
-        <f t="shared" ref="T17:W17" si="14">F17/SQRT(M20)</f>
+      <c r="T17" s="10">
+        <f>F17/SQRT(M20)</f>
         <v>7.9305158571814416E-2</v>
       </c>
-      <c r="U17" s="12">
-        <f t="shared" si="14"/>
+      <c r="U17" s="10">
+        <f>G17/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V17" s="12">
-        <f t="shared" si="14"/>
+      <c r="V17" s="10">
+        <f>H17/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W17" s="12">
-        <f t="shared" si="14"/>
+      <c r="W17" s="10">
+        <f>I17/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
         <v>5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="2"/>
+      <c r="L18" s="1">
+        <f>E18^2</f>
         <v>25</v>
       </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="0"/>
+      <c r="M18" s="1">
+        <f>F18^2</f>
+        <v>9</v>
+      </c>
+      <c r="N18" s="1">
+        <f>G18^2</f>
+        <v>9</v>
+      </c>
+      <c r="O18" s="1">
+        <f>H18^2</f>
         <v>25</v>
       </c>
-      <c r="P18" s="2">
-        <f t="shared" si="0"/>
+      <c r="P18" s="1">
+        <f>I18^2</f>
         <v>25</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="10">
         <f>E18/SQRT(L20)</f>
         <v>0.35444060250416792</v>
       </c>
-      <c r="T18" s="12">
-        <f t="shared" ref="T18:W18" si="15">F18/SQRT(M20)</f>
+      <c r="T18" s="10">
+        <f>F18/SQRT(M20)</f>
         <v>0.23791547571544325</v>
       </c>
-      <c r="U18" s="12">
-        <f t="shared" si="15"/>
+      <c r="U18" s="10">
+        <f>G18/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V18" s="12">
-        <f t="shared" si="15"/>
+      <c r="V18" s="10">
+        <f>H18/SQRT(O20)</f>
         <v>0.40689422938557973</v>
       </c>
-      <c r="W18" s="12">
-        <f t="shared" si="15"/>
+      <c r="W18" s="10">
+        <f>I18/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="0"/>
+      <c r="L19" s="1">
+        <f>E19^2</f>
+        <v>9</v>
+      </c>
+      <c r="M19" s="1">
+        <f>F19^2</f>
+        <v>9</v>
+      </c>
+      <c r="N19" s="1">
+        <f>G19^2</f>
+        <v>9</v>
+      </c>
+      <c r="O19" s="1">
+        <f>H19^2</f>
+        <v>9</v>
+      </c>
+      <c r="P19" s="1">
+        <f>I19^2</f>
         <v>25</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="10">
         <f>E19/SQRT(L20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="T19" s="12">
-        <f t="shared" ref="T19:W19" si="16">F19/SQRT(M20)</f>
+      <c r="T19" s="10">
+        <f>F19/SQRT(M20)</f>
         <v>0.23791547571544325</v>
       </c>
-      <c r="U19" s="12">
-        <f t="shared" si="16"/>
+      <c r="U19" s="10">
+        <f>G19/SQRT(N20)</f>
         <v>0.21266436150250076</v>
       </c>
-      <c r="V19" s="12">
-        <f t="shared" si="16"/>
+      <c r="V19" s="10">
+        <f>H19/SQRT(O20)</f>
         <v>0.24413653763134782</v>
       </c>
-      <c r="W19" s="12">
-        <f t="shared" si="16"/>
+      <c r="W19" s="10">
+        <f>I19/SQRT(P20)</f>
         <v>0.2765006318046655</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="K20" s="7" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="K20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <f>SUM(L5:L19)</f>
         <v>199</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <f>SUM(M5:M19)</f>
         <v>159</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="6">
         <f>SUM(N5:N19)</f>
         <v>199</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="6">
         <f>SUM(O5:O19)</f>
         <v>151</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="6">
         <f>SUM(P5:P19)</f>
         <v>327</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="L22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
       <c r="L23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="3" t="s">
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <f>S5*C23</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <f>T5*C24</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <f>U5*C25</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <f>V5*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <f>W5*C27</f>
         <v>0.16590037908279931</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="9">
         <f>F25</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="9">
         <f>F26</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="9">
         <f>F27</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="9">
         <f>F28</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="9">
         <f>F29</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="9">
         <f>F30</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="9">
         <f>F31</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="9">
         <f>F32</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="9">
         <f>F33</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25" s="9">
         <f>F34</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="9">
         <f>F35</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25" s="9">
         <f>F36</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y25" s="9">
         <f>F37</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z25" s="9">
         <f>F38</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25" s="9">
         <f>F39</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="12">
         <f>MAX(M25:AA25)</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="AC25" s="15">
+      <c r="AC25" s="12">
         <f>MIN(M25:AA25)</f>
         <v>1.0633218075125037</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <f>S6*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <f>T6*C24</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <f>U6*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <f>V6*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <f>W6*C27</f>
         <v>0.16590037908279931</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="9">
         <f>G25</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="9">
         <f>G26</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="9">
         <f>G27</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="9">
         <f>G28</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="9">
         <f>G29</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="9">
         <f>G30</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="9">
         <f>G31</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="9">
         <f>G32</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="9">
         <f>G33</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="9">
         <f>G34</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="9">
         <f>G35</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="9">
         <f>G36</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y26" s="9">
         <f>G37</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="9">
         <f>G38</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA26" s="9">
         <f>G39</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="AB26" s="15">
-        <f t="shared" ref="AB26:AB29" si="17">MAX(M26:AA26)</f>
+      <c r="AB26" s="12">
+        <f t="shared" ref="AB26:AB29" si="0">MAX(M26:AA26)</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="AC26" s="15">
-        <f t="shared" ref="AC26:AC29" si="18">MIN(M26:AA26)</f>
+      <c r="AC26" s="12">
+        <f t="shared" ref="AC26:AC29" si="1">MIN(M26:AA26)</f>
         <v>0.31722063428725766</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3" t="s">
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <f>S7*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <f>T7*C24</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <f>U7*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="10">
         <f>V7*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <f>W7*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="9">
         <f>H25</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="9">
         <f>H26</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="9">
         <f>H27</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="9">
         <f>H28</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="9">
         <f>H29</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="9">
         <f>H30</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="9">
         <f>H31</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="9">
         <f>H32</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="9">
         <f>H33</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="9">
         <f>H34</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W27" s="9">
         <f>H35</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="9">
         <f>H36</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y27" s="9">
         <f>H37</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z27" s="9">
         <f>H38</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA27" s="9">
         <f>H39</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="AB27" s="15">
-        <f t="shared" si="17"/>
+      <c r="AB27" s="12">
+        <f t="shared" si="0"/>
         <v>1.0633218075125037</v>
       </c>
-      <c r="AC27" s="15">
-        <f t="shared" si="18"/>
+      <c r="AC27" s="12">
+        <f t="shared" si="1"/>
         <v>0.63799308450750225</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <f>S8*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f>T8*C24</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <f>U8*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="10">
         <f>V8*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <f>W8*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="9">
         <f>I25</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="9">
         <f>I26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="9">
         <f>I27</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="9">
         <f>I28</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="9">
         <f>I29</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="9">
         <f>I30</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="9">
         <f>I31</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="9">
         <f>I32</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="9">
         <f>I33</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V28" s="9">
         <f>I34</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="9">
         <f>I35</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="9">
         <f>I36</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="9">
         <f>I37</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="9">
         <f>I38</f>
         <v>0.81378845877115946</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA28" s="9">
         <f>I39</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="AB28" s="15">
-        <f t="shared" si="17"/>
+      <c r="AB28" s="12">
+        <f t="shared" si="0"/>
         <v>0.81378845877115946</v>
       </c>
-      <c r="AC28" s="15">
-        <f t="shared" si="18"/>
+      <c r="AC28" s="12">
+        <f t="shared" si="1"/>
         <v>0.48827307526269564</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <f>S9*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <f>T9*C24</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <f>U9*C25</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <f>V9*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <f>W9*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <f>J25</f>
         <v>0.16590037908279931</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f>J26</f>
         <v>0.16590037908279931</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="9">
         <f>J27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="9">
         <f>J28</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <f>J29</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="9">
         <f>J30</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="9">
         <f>J31</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="9">
         <f>J32</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="9">
         <f>J33</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="9">
         <f>J34</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W29" s="9">
         <f>J35</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="9">
         <f>J36</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y29" s="9">
         <f>J37</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="9">
         <f>J38</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA29" s="9">
         <f>J39</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="AB29" s="15">
-        <f t="shared" si="17"/>
+      <c r="AB29" s="12">
+        <f t="shared" si="0"/>
         <v>0.82950189541399655</v>
       </c>
-      <c r="AC29" s="15">
-        <f t="shared" si="18"/>
+      <c r="AC29" s="12">
+        <f t="shared" si="1"/>
         <v>0.16590037908279931</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <f>S10*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <f>T10*C24</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <f>U10*C25</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="10">
         <f>V10*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <f>W10*C27</f>
         <v>0.82950189541399655</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <f>S11*C23</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <f>T11*C24</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <f>U11*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="10">
         <f>V11*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <f>W11*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <f>S12*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <f>T12*C24</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="10">
         <f>U12*C25</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="10">
         <f>V12*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="10">
         <f>W12*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L32" s="31" t="s">
+      <c r="L32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="9">
         <f>AB25</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="9">
         <f>AB26</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="9">
         <f>AB27</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="9">
         <f>AB28</f>
         <v>0.81378845877115946</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="9">
         <f>AB29</f>
         <v>0.82950189541399655</v>
       </c>
     </row>
     <row r="33" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <f>S13*C23</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <f>T13*C24</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <f>U13*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <f>V13*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="10">
         <f>W13*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L33" s="31" t="s">
+      <c r="L33" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="9">
         <f>AC25</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="9">
         <f>AC26</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="9">
         <f>AC27</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="9">
         <f>AC28</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="9">
         <f>AC29</f>
         <v>0.16590037908279931</v>
       </c>
     </row>
     <row r="34" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <f>S14*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <f>T14*C24</f>
         <v>1.5861031714362883</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
         <f>U14*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <f>V14*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="10">
         <f>W14*C27</f>
         <v>0.82950189541399655</v>
       </c>
     </row>
     <row r="35" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <f>S15*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <f>T15*C24</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="10">
         <f>U15*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <f>V15*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="10">
         <f>W15*C27</f>
         <v>0.82950189541399655</v>
       </c>
       <c r="L35" t="s">
         <v>70</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <f>S16*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <f>T16*C24</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="10">
         <f>U16*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <f>V16*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="10">
         <f>W16*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <f>SQRT(((M32-M25)^2)+((N32-M26)^2)+((O32-M27)^2)+((P32-M28)^2)+((Q32-M29)^2))</f>
         <v>0.73913952497328028</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="1">
         <f>SQRT(((M33-M25)^2)+((N33-M26)^2)+((O33-M27)^2)+((P33-M28)^2)+((Q33-M29)^2))</f>
         <v>1.5144239758102407</v>
       </c>
-      <c r="Q36" s="29" t="s">
+      <c r="Q36" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="14" t="s">
+      <c r="R36" s="21"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="U36" s="14"/>
-      <c r="V36" s="3" t="s">
+      <c r="U36" s="22"/>
+      <c r="V36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="W36" s="29" t="s">
+      <c r="W36" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="X36" s="1"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="10">
         <f>S17*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <f>T17*C24</f>
         <v>0.31722063428725766</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="10">
         <f>U17*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="10">
         <f>V17*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="10">
         <f>W17*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <f>SQRT(((M32-N25)^2)+((N32-N26)^2)+((O32-N27)^2)+((P32-N28)^2)+((Q32-N29)^2))</f>
         <v>1.1089383764686216</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <f>SQRT(((M33-N25)^2)+((N33-N26)^2)+((O33-N27)^2)+((P33-N28)^2)+((Q33-N29)^2))</f>
         <v>1.2688825371490307</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="U37" s="17">
+      <c r="U37" s="14">
         <f>P36/(P36+M36)</f>
         <v>0.67201300308764511</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <f>S18*C23</f>
         <v>1.7722030125208397</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <f>T18*C24</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
         <f>U18*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <f>V18*C26</f>
         <v>0.81378845877115946</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="10">
         <f>W18*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <f>SQRT(((M32-O25)^2)+((N32-O26)^2)+((O32-O27)^2)+((P32-O28)^2)+((Q32-O29)^2))</f>
         <v>1.0917385555151189</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <f>SQRT(((M33-O25)^2)+((N33-O26)^2)+((O33-O27)^2)+((P33-O28)^2)+((Q33-O29)^2))</f>
         <v>0.91808643152347291</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U38" s="17">
-        <f t="shared" ref="U38:U51" si="19">P37/(P37+M37)</f>
+      <c r="U38" s="14">
+        <f t="shared" ref="U38:U51" si="2">P37/(P37+M37)</f>
         <v>0.53363250776465487</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <f>S19*C23</f>
         <v>1.0633218075125037</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <f>T19*C24</f>
         <v>0.95166190286177299</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <f>U19*C25</f>
         <v>0.63799308450750225</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <f>V19*C26</f>
         <v>0.48827307526269564</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="10">
         <f>W19*C27</f>
         <v>0.82950189541399655</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <f>SQRT(((M32-P25)^2)+((N32-P26)^2)+((O32-P27)^2)+((P32-P28)^2)+((Q32-P29)^2))</f>
         <v>0.88846910488086073</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <f>SQRT(((M33-P25)^2)+((N33-P26)^2)+((O33-P27)^2)+((P33-P28)^2)+((Q33-P29)^2))</f>
         <v>1.4319322140237034</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U39" s="17">
-        <f t="shared" si="19"/>
+      <c r="U39" s="14">
+        <f t="shared" si="2"/>
         <v>0.45679919268803687</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <f>SQRT(((M32-Q25)^2)+((N32-Q26)^2)+((O32-Q27)^2)+((P32-Q28)^2)+((Q32-Q29)^2))</f>
         <v>1.0054792643238213</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <f>SQRT(((M33-Q25)^2)+((N33-Q26)^2)+((O33-Q27)^2)+((P33-Q28)^2)+((Q33-Q29)^2))</f>
         <v>1.0118237091314719</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U40" s="17">
-        <f t="shared" si="19"/>
+      <c r="U40" s="14">
+        <f t="shared" si="2"/>
         <v>0.61710541291180743</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <f>SQRT(((M32-R25)^2)+((N32-R26)^2)+((O32-R27)^2)+((P32-R28)^2)+((Q32-R29)^2))</f>
         <v>1.0054792643238213</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <f>SQRT(((M33-R25)^2)+((N33-R26)^2)+((O33-R27)^2)+((P33-R28)^2)+((Q33-R29)^2))</f>
         <v>1.0118237091314719</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U41" s="17">
-        <f t="shared" si="19"/>
+      <c r="U41" s="14">
+        <f t="shared" si="2"/>
         <v>0.50157250668123088</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <f>SQRT(((M32-S25)^2)+((N32-S26)^2)+((O32-S27)^2)+((P32-S28)^2)+((Q32-S29)^2))</f>
         <v>1.377289976945846</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1">
         <f>SQRT(((M33-S25)^2)+((N33-S26)^2)+((O33-S27)^2)+((P33-S28)^2)+((Q33-S29)^2))</f>
         <v>0.97101984289258203</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="U42" s="17">
-        <f t="shared" si="19"/>
+      <c r="U42" s="14">
+        <f t="shared" si="2"/>
         <v>0.50157250668123088</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <f>SQRT(((M32-T25)^2)+((N32-T26)^2)+((O32-T27)^2)+((P32-T28)^2)+((Q32-T29)^2))</f>
         <v>1.4894749815946873</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <f>SQRT(((M33-T25)^2)+((N33-T26)^2)+((O33-T27)^2)+((P33-T28)^2)+((Q33-T29)^2))</f>
         <v>0.78820777406095754</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R43" s="13">
         <f>2.516/(2.516+1.885)</f>
         <v>0.5716882526698478</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U43" s="17">
-        <f t="shared" si="19"/>
+      <c r="U43" s="14">
+        <f t="shared" si="2"/>
         <v>0.41349733101205177</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <f>SQRT(((M32-U25)^2)+((N32-U26)^2)+((O32-U27)^2)+((P32-U28)^2)+((Q32-U29)^2))</f>
         <v>1.377289976945846</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1">
         <f>SQRT(((M33-U25)^2)+((N33-U26)^2)+((O33-U27)^2)+((P33-U28)^2)+((Q33-U29)^2))</f>
         <v>0.97101984289258203</v>
       </c>
-      <c r="R44" s="16">
+      <c r="R44" s="13">
         <f>4.266/(4.266+1.263)</f>
         <v>0.77156809549647321</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U44" s="17">
-        <f t="shared" si="19"/>
+      <c r="U44" s="14">
+        <f t="shared" si="2"/>
         <v>0.34605687385733719</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <f>SQRT(((M32-V25)^2)+((N32-V26)^2)+((O32-V27)^2)+((P32-V28)^2)+((Q32-V29)^2))</f>
         <v>0.88846910488086073</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="1">
         <f>SQRT(((M33-V25)^2)+((N33-V26)^2)+((O33-V27)^2)+((P33-V28)^2)+((Q33-V29)^2))</f>
         <v>1.4319322140237034</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U45" s="17">
-        <f t="shared" si="19"/>
+      <c r="U45" s="14">
+        <f t="shared" si="2"/>
         <v>0.41349733101205177</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <f>SQRT(((M32-W25)^2)+((N32-W26)^2)+((O32-W27)^2)+((P32-W28)^2)+((Q32-W29)^2))</f>
         <v>1.0917385555151189</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="1">
         <f>SQRT(((M33-W25)^2)+((N33-W26)^2)+((O33-W27)^2)+((P33-W28)^2)+((Q33-W29)^2))</f>
         <v>0.91808643152347291</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U46" s="17">
-        <f t="shared" si="19"/>
+      <c r="U46" s="14">
+        <f t="shared" si="2"/>
         <v>0.61710541291180743</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <f>SQRT(((M32-X25)^2)+((N32-X26)^2)+((O32-X27)^2)+((P32-X28)^2)+((Q32-X29)^2))</f>
         <v>1.5490126672850546</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1">
         <f>SQRT(((M33-X25)^2)+((N33-X26)^2)+((O33-X27)^2)+((P33-X28)^2)+((Q33-X29)^2))</f>
         <v>0.66360151633119724</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U47" s="17">
-        <f t="shared" si="19"/>
+      <c r="U47" s="14">
+        <f t="shared" si="2"/>
         <v>0.45679919268803687</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <f>SQRT(((M32-Y25)^2)+((N32-Y26)^2)+((O32-Y27)^2)+((P32-Y28)^2)+((Q32-Y29)^2))</f>
         <v>1.5490126672850546</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="1">
         <f>SQRT(((M33-Y25)^2)+((N33-Y26)^2)+((O33-Y27)^2)+((P33-Y28)^2)+((Q33-Y29)^2))</f>
         <v>0.66360151633119724</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U48" s="17">
-        <f t="shared" si="19"/>
+      <c r="U48" s="14">
+        <f t="shared" si="2"/>
         <v>0.29991741047534115</v>
       </c>
-      <c r="V48" s="2">
+      <c r="V48" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <f>SQRT(((M32-Z25)^2)+((N32-Z26)^2)+((O32-Z27)^2)+((P32-Z28)^2)+((Q32-Z29)^2))</f>
         <v>0.76381951132679604</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="1">
         <f>SQRT(((M33-Z25)^2)+((N33-Z26)^2)+((O33-Z27)^2)+((P33-Z28)^2)+((Q33-Z29)^2))</f>
         <v>1.2047221768782366</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="U49" s="17">
-        <f t="shared" si="19"/>
+      <c r="U49" s="14">
+        <f t="shared" si="2"/>
         <v>0.29991741047534115</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <f>SQRT(((M32-AA25)^2)+((N32-AA26)^2)+((O32-AA27)^2)+((P32-AA28)^2)+((Q32-AA29)^2))</f>
         <v>1.0917385555151189</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="1">
         <f>SQRT(((M33-AA25)^2)+((N33-AA26)^2)+((O33-AA27)^2)+((P33-AA28)^2)+((Q33-AA29)^2))</f>
         <v>0.91808643152347291</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U50" s="17">
-        <f t="shared" si="19"/>
+      <c r="U50" s="14">
+        <f t="shared" si="2"/>
         <v>0.61198712940477962</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V50" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U51" s="17">
-        <f t="shared" si="19"/>
+      <c r="U51" s="14">
+        <f t="shared" si="2"/>
         <v>0.45679919268803687</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L31:T31"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Q36:S36"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C1:J1"/>
@@ -3697,6 +3692,11 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="K3:P3"/>
     <mergeCell ref="R3:W3"/>
+    <mergeCell ref="L31:T31"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Q36:S36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3708,232 +3708,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="19" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="19"/>
-    <col min="5" max="5" width="14.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="15.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="16"/>
+    <col min="5" max="5" width="14.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="B6" s="29"/>
+      <c r="E6" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="21">
-        <v>3</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="28"/>
+      <c r="E11" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="21">
-        <v>3</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="28"/>
+      <c r="E16" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="21">
-        <v>3</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="B18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>5</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E6:F6"/>
@@ -3941,8 +3943,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
